--- a/ph_distr_direct_20deg.xlsx
+++ b/ph_distr_direct_20deg.xlsx
@@ -443,7 +443,7 @@
         <v>-0.4875</v>
       </c>
       <c r="B2" t="n">
-        <v>-362.0549378244812</v>
+        <v>-445.4964104801351</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>-0.4776515151515152</v>
       </c>
       <c r="B3" t="n">
-        <v>-360.2000109533079</v>
+        <v>-443.6613017758357</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>-0.4678030303030303</v>
       </c>
       <c r="B4" t="n">
-        <v>-358.4532921480447</v>
+        <v>-441.8479644012368</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>-0.4579545454545455</v>
       </c>
       <c r="B5" t="n">
-        <v>-356.7307093015439</v>
+        <v>-440.0551546523737</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>-0.4481060606060606</v>
       </c>
       <c r="B6" t="n">
-        <v>-355.0309070866714</v>
+        <v>-438.2815956851772</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>-0.4382575757575758</v>
       </c>
       <c r="B7" t="n">
-        <v>-353.3525185822851</v>
+        <v>-436.526007873564</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>-0.428409090909091</v>
       </c>
       <c r="B8" t="n">
-        <v>-351.6942176035967</v>
+        <v>-434.787133958478</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>-0.4185606060606061</v>
       </c>
       <c r="B9" t="n">
-        <v>-350.0546836033012</v>
+        <v>-433.0321184488703</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>-0.4087121212121212</v>
       </c>
       <c r="B10" t="n">
-        <v>-348.4326314166173</v>
+        <v>-431.2737200018528</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>-0.3988636363636364</v>
       </c>
       <c r="B11" t="n">
-        <v>-346.8268259366604</v>
+        <v>-429.7360755494249</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>-0.3890151515151515</v>
       </c>
       <c r="B12" t="n">
-        <v>-345.2298206610369</v>
+        <v>-428.261083876087</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>-0.3791666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>-343.6227339527127</v>
+        <v>-426.8035819029843</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>-0.3693181818181819</v>
       </c>
       <c r="B14" t="n">
-        <v>-342.1179503810463</v>
+        <v>-425.3624452433929</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>-0.359469696969697</v>
       </c>
       <c r="B15" t="n">
-        <v>-340.6917093239227</v>
+        <v>-423.9365732163961</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>-0.3496212121212122</v>
       </c>
       <c r="B16" t="n">
-        <v>-339.2796738438046</v>
+        <v>-422.5249292812011</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>-0.3397727272727273</v>
       </c>
       <c r="B17" t="n">
-        <v>-337.8808904843851</v>
+        <v>-421.1265416088521</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>-0.3299242424242425</v>
       </c>
       <c r="B18" t="n">
-        <v>-336.4944572565777</v>
+        <v>-419.7405025329712</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>-0.3200757575757576</v>
       </c>
       <c r="B19" t="n">
-        <v>-335.1195328539667</v>
+        <v>-418.3659671818055</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>-0.3102272727272727</v>
       </c>
       <c r="B20" t="n">
-        <v>-333.7553356290986</v>
+        <v>-417.0021512993811</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-0.3003787878787879</v>
       </c>
       <c r="B21" t="n">
-        <v>-332.4011411811961</v>
+        <v>-415.6483284826934</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>-0.290530303030303</v>
       </c>
       <c r="B22" t="n">
-        <v>-331.0340179437302</v>
+        <v>-414.303827041099</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>-0.2806818181818182</v>
       </c>
       <c r="B23" t="n">
-        <v>-329.7491878936384</v>
+        <v>-412.968026666993</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>-0.2708333333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-328.5455159672537</v>
+        <v>-411.6403554450295</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>-0.2609848484848485</v>
       </c>
       <c r="B25" t="n">
-        <v>-327.351182013114</v>
+        <v>-410.2834657083649</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>-0.2511363636363637</v>
       </c>
       <c r="B26" t="n">
-        <v>-326.1656491340909</v>
+        <v>-409.0806255524888</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>-0.2412878787878788</v>
       </c>
       <c r="B27" t="n">
-        <v>-324.9884112463258</v>
+        <v>-407.9804381198862</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>-0.2314393939393939</v>
       </c>
       <c r="B28" t="n">
-        <v>-323.8189968051345</v>
+        <v>-406.8887343671786</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>-0.2215909090909091</v>
       </c>
       <c r="B29" t="n">
-        <v>-322.6569667695437</v>
+        <v>-405.8050868225444</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>-0.2117424242424243</v>
       </c>
       <c r="B30" t="n">
-        <v>-321.5019126677836</v>
+        <v>-404.7290867702046</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>-0.2018939393939394</v>
       </c>
       <c r="B31" t="n">
-        <v>-320.3274042050044</v>
+        <v>-403.6603508747312</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>-0.1920454545454546</v>
       </c>
       <c r="B32" t="n">
-        <v>-319.2907515370896</v>
+        <v>-402.5985202372615</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>-0.1821969696969697</v>
       </c>
       <c r="B33" t="n">
-        <v>-318.2740522434825</v>
+        <v>-401.5432589153248</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>-0.1723484848484849</v>
       </c>
       <c r="B34" t="n">
-        <v>-317.2638279237282</v>
+        <v>-400.4942524703282</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>-0.1625</v>
       </c>
       <c r="B35" t="n">
-        <v>-316.2597896986518</v>
+        <v>-399.4512065842807</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>-0.1526515151515151</v>
       </c>
       <c r="B36" t="n">
-        <v>-315.2616662053719</v>
+        <v>-398.4138457490413</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>-0.1428030303030303</v>
       </c>
       <c r="B37" t="n">
-        <v>-314.269202668234</v>
+        <v>-397.3819120244643</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>-0.1329545454545454</v>
       </c>
       <c r="B38" t="n">
-        <v>-313.2821601060913</v>
+        <v>-396.3551640968268</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>-0.1231060606060606</v>
       </c>
       <c r="B39" t="n">
-        <v>-312.29108779573</v>
+        <v>-395.3182663513277</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>-0.1132575757575758</v>
       </c>
       <c r="B40" t="n">
-        <v>-311.3502960547426</v>
+        <v>-394.3615119689465</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>-0.1034090909090909</v>
       </c>
       <c r="B41" t="n">
-        <v>-310.4918991822609</v>
+        <v>-393.539335200702</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>-0.09356060606060607</v>
       </c>
       <c r="B42" t="n">
-        <v>-309.6383751358543</v>
+        <v>-392.7219707274202</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>-0.08371212121212124</v>
       </c>
       <c r="B43" t="n">
-        <v>-308.7895824656864</v>
+        <v>-391.9092885801608</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>-0.07386363636363635</v>
       </c>
       <c r="B44" t="n">
-        <v>-307.9453773444486</v>
+        <v>-391.1011566490465</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>-0.06401515151515152</v>
       </c>
       <c r="B45" t="n">
-        <v>-307.1056235012467</v>
+        <v>-390.2974492268418</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>-0.0541666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>-306.270192224615</v>
+        <v>-389.4980472887564</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>-0.04431818181818181</v>
       </c>
       <c r="B47" t="n">
-        <v>-305.4366866797098</v>
+        <v>-388.7028382451181</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>-0.03446969696969698</v>
       </c>
       <c r="B48" t="n">
-        <v>-304.5989183392429</v>
+        <v>-387.9117156832023</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>-0.0246212121212121</v>
       </c>
       <c r="B49" t="n">
-        <v>-303.8841431312219</v>
+        <v>-387.124579124111</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>-0.01477272727272727</v>
       </c>
       <c r="B50" t="n">
-        <v>-303.1731257553831</v>
+        <v>-386.3413337897778</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>-0.004924242424242442</v>
       </c>
       <c r="B51" t="n">
-        <v>-302.4657893303742</v>
+        <v>-385.5618902340505</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.004924242424242442</v>
       </c>
       <c r="B52" t="n">
-        <v>-301.7620686797586</v>
+        <v>-384.7861620456598</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.01477272727272727</v>
       </c>
       <c r="B53" t="n">
-        <v>-301.061901557594</v>
+        <v>-383.9689689968313</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.02462121212121215</v>
       </c>
       <c r="B54" t="n">
-        <v>-300.3652295314246</v>
+        <v>-383.3077303183912</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.03446969696969693</v>
       </c>
       <c r="B55" t="n">
-        <v>-299.6665769717816</v>
+        <v>-382.7181236061327</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.04431818181818181</v>
       </c>
       <c r="B56" t="n">
-        <v>-298.9454860580304</v>
+        <v>-382.1315222760979</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>-298.3581254850457</v>
+        <v>-381.5478790002581</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.06401515151515147</v>
       </c>
       <c r="B58" t="n">
-        <v>-297.7782107287285</v>
+        <v>-380.9671660709857</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.07386363636363635</v>
       </c>
       <c r="B59" t="n">
-        <v>-297.2012018641612</v>
+        <v>-380.3893582264911</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.08371212121212124</v>
       </c>
       <c r="B60" t="n">
-        <v>-296.6270762119037</v>
+        <v>-379.8144320134299</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.09356060606060612</v>
       </c>
       <c r="B61" t="n">
-        <v>-296.055813469583</v>
+        <v>-379.2423658183942</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.1034090909090909</v>
       </c>
       <c r="B62" t="n">
-        <v>-295.4873951770301</v>
+        <v>-378.6731398982186</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.1132575757575758</v>
       </c>
       <c r="B63" t="n">
-        <v>-294.8993980464375</v>
+        <v>-378.1067364208894</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.1231060606060607</v>
       </c>
       <c r="B64" t="n">
-        <v>-294.3050714762324</v>
+        <v>-377.5431399132253</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.1329545454545454</v>
       </c>
       <c r="B65" t="n">
-        <v>-293.8413358386546</v>
+        <v>-376.9710864249794</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.1428030303030303</v>
       </c>
       <c r="B66" t="n">
-        <v>-293.382976138189</v>
+        <v>-376.3511512159287</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.1526515151515152</v>
       </c>
       <c r="B67" t="n">
-        <v>-292.9269409571318</v>
+        <v>-375.8249047519828</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.1625</v>
       </c>
       <c r="B68" t="n">
-        <v>-292.4732295715706</v>
+        <v>-375.4353729965546</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.1723484848484849</v>
       </c>
       <c r="B69" t="n">
-        <v>-292.0218406349721</v>
+        <v>-375.0478618793383</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.1821969696969697</v>
       </c>
       <c r="B70" t="n">
-        <v>-291.5570943873059</v>
+        <v>-374.6623709496888</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.1920454545454545</v>
       </c>
       <c r="B71" t="n">
-        <v>-291.0721218122858</v>
+        <v>-374.2789005304087</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2018939393939394</v>
       </c>
       <c r="B72" t="n">
-        <v>-290.6228511185759</v>
+        <v>-373.8974516627344</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2117424242424243</v>
       </c>
       <c r="B73" t="n">
-        <v>-290.2759609902194</v>
+        <v>-373.5180252703385</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2215909090909092</v>
       </c>
       <c r="B74" t="n">
-        <v>-289.9309249933636</v>
+        <v>-373.1406221651206</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2314393939393939</v>
       </c>
       <c r="B75" t="n">
-        <v>-289.5877796764286</v>
+        <v>-372.7652430324067</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2412878787878788</v>
       </c>
       <c r="B76" t="n">
-        <v>-289.2465267610826</v>
+        <v>-372.3918877377524</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2511363636363637</v>
       </c>
       <c r="B77" t="n">
-        <v>-288.8841868969883</v>
+        <v>-371.9802997094313</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2609848484848485</v>
       </c>
       <c r="B78" t="n">
-        <v>-288.5077272168031</v>
+        <v>-371.5472007972855</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2708333333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>-288.1330664860177</v>
+        <v>-371.1160806414214</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2806818181818183</v>
       </c>
       <c r="B80" t="n">
-        <v>-287.8556470531655</v>
+        <v>-370.8440434468719</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.290530303030303</v>
       </c>
       <c r="B81" t="n">
-        <v>-287.6151739529591</v>
+        <v>-370.6328816795114</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.3003787878787879</v>
       </c>
       <c r="B82" t="n">
-        <v>-287.3762641914956</v>
+        <v>-370.4232071540605</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.3102272727272728</v>
       </c>
       <c r="B83" t="n">
-        <v>-287.1335636770987</v>
+        <v>-370.2150134259761</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.3200757575757576</v>
       </c>
       <c r="B84" t="n">
-        <v>-286.8581316292433</v>
+        <v>-370.0082964094851</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.3299242424242425</v>
       </c>
       <c r="B85" t="n">
-        <v>-286.5840931755853</v>
+        <v>-369.8030494684137</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.3397727272727273</v>
       </c>
       <c r="B86" t="n">
-        <v>-286.3114195168001</v>
+        <v>-369.5992633027807</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.3496212121212121</v>
       </c>
       <c r="B87" t="n">
-        <v>-286.1029275141884</v>
+        <v>-369.3909807693576</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.359469696969697</v>
       </c>
       <c r="B88" t="n">
-        <v>-285.9611753811439</v>
+        <v>-369.1245611976952</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3693181818181819</v>
       </c>
       <c r="B89" t="n">
-        <v>-285.8187173750744</v>
+        <v>-368.8592584412977</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3791666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>-285.6399821509943</v>
+        <v>-368.5950208664359</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3890151515151515</v>
       </c>
       <c r="B91" t="n">
-        <v>-285.461771392291</v>
+        <v>-368.3318177539681</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3988636363636364</v>
       </c>
       <c r="B92" t="n">
-        <v>-285.284601978563</v>
+        <v>-368.2430356256496</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.4087121212121213</v>
       </c>
       <c r="B93" t="n">
-        <v>-285.1084276838276</v>
+        <v>-368.1916906378304</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.4185606060606061</v>
       </c>
       <c r="B94" t="n">
-        <v>-285.0030015761558</v>
+        <v>-368.1415476103758</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.428409090909091</v>
       </c>
       <c r="B95" t="n">
-        <v>-284.943218767812</v>
+        <v>-368.0925914326772</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.4382575757575758</v>
       </c>
       <c r="B96" t="n">
-        <v>-284.8554619467197</v>
+        <v>-368.0447982951656</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.4481060606060606</v>
       </c>
       <c r="B97" t="n">
-        <v>-284.7685570300646</v>
+        <v>-367.9641712544478</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.4579545454545455</v>
       </c>
       <c r="B98" t="n">
-        <v>-284.6824439737287</v>
+        <v>-367.8516870821025</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.4678030303030304</v>
       </c>
       <c r="B99" t="n">
-        <v>-284.597052266603</v>
+        <v>-367.7397442534897</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.4776515151515152</v>
       </c>
       <c r="B100" t="n">
-        <v>-284.5122991631707</v>
+        <v>-367.6282433324538</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.4875</v>
       </c>
       <c r="B101" t="n">
-        <v>-284.5094893150691</v>
+        <v>-367.5170691715939</v>
       </c>
     </row>
   </sheetData>

--- a/ph_distr_direct_20deg.xlsx
+++ b/ph_distr_direct_20deg.xlsx
@@ -382,7 +382,7 @@
         <v>-0.4875</v>
       </c>
       <c r="B2">
-        <v>-425.2477512219741</v>
+        <v>-642.9521233076941</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>-0.4776515151515152</v>
       </c>
       <c r="B3">
-        <v>-424.3300028484849</v>
+        <v>-641.1579991576284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>-0.4678030303030303</v>
       </c>
       <c r="B4">
-        <v>-423.4122544749957</v>
+        <v>-639.38785278453</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>-0.4579545454545455</v>
       </c>
       <c r="B5">
-        <v>-422.4945061015065</v>
+        <v>-637.6404537954879</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>-0.4481060606060606</v>
       </c>
       <c r="B6">
-        <v>-421.5767577280172</v>
+        <v>-635.9145156249416</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>-0.4382575757575758</v>
       </c>
       <c r="B7">
-        <v>-420.6590093545281</v>
+        <v>-634.2087264543144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>-0.428409090909091</v>
       </c>
       <c r="B8">
-        <v>-419.7412609810389</v>
+        <v>-632.5217765147844</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>-0.4185606060606061</v>
       </c>
       <c r="B9">
-        <v>-418.8235126075497</v>
+        <v>-630.8351194565713</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>-0.4087121212121212</v>
       </c>
       <c r="B10">
-        <v>-417.9057642340604</v>
+        <v>-629.1584960294696</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>-0.3988636363636364</v>
       </c>
       <c r="B11">
-        <v>-416.9880158605713</v>
+        <v>-627.5992058740484</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>-0.3890151515151515</v>
       </c>
       <c r="B12">
-        <v>-416.0702674870821</v>
+        <v>-626.0786126421084</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>-0.3791666666666667</v>
       </c>
       <c r="B13">
-        <v>-415.1525191135929</v>
+        <v>-624.5741691116924</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>-0.3693181818181819</v>
       </c>
       <c r="B14">
-        <v>-414.2347707401037</v>
+        <v>-623.0847522583516</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>-0.359469696969697</v>
       </c>
       <c r="B15">
-        <v>-413.3170223666144</v>
+        <v>-621.6093046255206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>-0.3496212121212122</v>
       </c>
       <c r="B16">
-        <v>-412.3992739931252</v>
+        <v>-620.1468361299138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>-0.3397727272727273</v>
       </c>
       <c r="B17">
-        <v>-411.481525619636</v>
+        <v>-618.687931891827</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>-0.3299242424242425</v>
       </c>
       <c r="B18">
-        <v>-410.5637772461469</v>
+        <v>-617.2289504815049</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>-0.3200757575757576</v>
       </c>
       <c r="B19">
-        <v>-409.6460288726576</v>
+        <v>-615.8938895264831</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>-0.3102272727272727</v>
       </c>
       <c r="B20">
-        <v>-408.7282804991684</v>
+        <v>-614.5803866389954</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>-0.3003787878787879</v>
       </c>
       <c r="B21">
-        <v>-407.8105321256792</v>
+        <v>-613.27780930831</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>-0.290530303030303</v>
       </c>
       <c r="B22">
-        <v>-406.89278375219</v>
+        <v>-611.985455177628</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>-0.2806818181818182</v>
       </c>
       <c r="B23">
-        <v>-405.9750353787008</v>
+        <v>-610.7026715628406</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>-0.2708333333333334</v>
       </c>
       <c r="B24">
-        <v>-405.0572870052116</v>
+        <v>-609.4288527028945</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>-0.2609848484848485</v>
       </c>
       <c r="B25">
-        <v>-404.1395386317224</v>
+        <v>-608.1447710471148</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>-0.2511363636363637</v>
       </c>
       <c r="B26">
-        <v>-403.2217902582331</v>
+        <v>-606.9421017500088</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>-0.2412878787878788</v>
       </c>
       <c r="B27">
-        <v>-402.3040418847439</v>
+        <v>-605.7943305548431</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>-0.2314393939393939</v>
       </c>
       <c r="B28">
-        <v>-401.3862935112547</v>
+        <v>-604.6546889844702</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>-0.2215909090909091</v>
       </c>
       <c r="B29">
-        <v>-400.4685451377655</v>
+        <v>-603.522734790404</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>-0.2117424242424243</v>
       </c>
       <c r="B30">
-        <v>-399.5507967642764</v>
+        <v>-602.3980552615556</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>-0.2018939393939394</v>
       </c>
       <c r="B31">
-        <v>-398.6330483907872</v>
+        <v>-601.280265318582</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>-0.1920454545454546</v>
       </c>
       <c r="B32">
-        <v>-397.715300017298</v>
+        <v>-600.1589877807996</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>-0.1821969696969697</v>
       </c>
       <c r="B33">
-        <v>-396.7975516438087</v>
+        <v>-599.0891241459545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>-0.1723484848484849</v>
       </c>
       <c r="B34">
-        <v>-395.8798032703195</v>
+        <v>-598.0884495247354</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>-0.1625</v>
       </c>
       <c r="B35">
-        <v>-394.9620548968303</v>
+        <v>-597.0940017425817</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.1526515151515151</v>
       </c>
       <c r="B36">
-        <v>-394.0443065233411</v>
+        <v>-596.1055115047928</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.1428030303030303</v>
       </c>
       <c r="B37">
-        <v>-393.1265581498519</v>
+        <v>-595.1227257895017</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.1329545454545454</v>
       </c>
       <c r="B38">
-        <v>-392.2088097763627</v>
+        <v>-594.1454068711794</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.1231060606060606</v>
       </c>
       <c r="B39">
-        <v>-391.2910614028735</v>
+        <v>-593.1656116999044</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.1132575757575758</v>
       </c>
       <c r="B40">
-        <v>-390.3733130293843</v>
+        <v>-592.228632419256</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.1034090909090909</v>
       </c>
       <c r="B41">
-        <v>-389.455564655895</v>
+        <v>-591.3610720710825</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.09356060606060607</v>
       </c>
       <c r="B42">
-        <v>-388.5378162824059</v>
+        <v>-590.4983999477961</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.08371212121212124</v>
       </c>
       <c r="B43">
-        <v>-387.6200679089166</v>
+        <v>-589.6404605609623</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.07386363636363635</v>
       </c>
       <c r="B44">
-        <v>-386.7023195354274</v>
+        <v>-588.7871070409079</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.06401515151515152</v>
       </c>
       <c r="B45">
-        <v>-385.7845711619382</v>
+        <v>-587.9382007251442</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.0541666666666667</v>
       </c>
       <c r="B46">
-        <v>-384.866822788449</v>
+        <v>-587.081886751569</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.04431818181818181</v>
       </c>
       <c r="B47">
-        <v>-383.9490744149598</v>
+        <v>-586.277638951515</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.03446969696969698</v>
       </c>
       <c r="B48">
-        <v>-383.0313260414706</v>
+        <v>-585.5322630346732</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.0246212121212121</v>
       </c>
       <c r="B49">
-        <v>-382.1135776679814</v>
+        <v>-584.7908020933318</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>-0.01477272727272727</v>
       </c>
       <c r="B50">
-        <v>-381.1958292944922</v>
+        <v>-584.0531743809063</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>-0.004924242424242442</v>
       </c>
       <c r="B51">
-        <v>-380.278080921003</v>
+        <v>-583.3193027010078</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>0.004924242424242442</v>
       </c>
       <c r="B52">
-        <v>-379.3603325475137</v>
+        <v>-582.5891142795568</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>0.01477272727272727</v>
       </c>
       <c r="B53">
-        <v>-378.4425841740245</v>
+        <v>-581.8399370541036</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>0.02462121212121215</v>
       </c>
       <c r="B54">
-        <v>-377.5248358005354</v>
+        <v>-581.1703977051143</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>0.03446969696969693</v>
       </c>
       <c r="B55">
-        <v>-376.6070874270462</v>
+        <v>-580.5383114606549</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>0.04431818181818181</v>
       </c>
       <c r="B56">
-        <v>-375.6893390535569</v>
+        <v>-579.90941403674</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="B57">
-        <v>-374.7715906800678</v>
+        <v>-579.2836694542476</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>0.06401515151515147</v>
       </c>
       <c r="B58">
-        <v>-373.8538423065785</v>
+        <v>-578.6610442279036</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>0.07386363636363635</v>
       </c>
       <c r="B59">
-        <v>-372.9360939330894</v>
+        <v>-578.0314196998914</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>0.08371212121212124</v>
       </c>
       <c r="B60">
-        <v>-372.0183455596001</v>
+        <v>-577.3871437214251</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>0.09356060606060612</v>
       </c>
       <c r="B61">
-        <v>-371.1005971861109</v>
+        <v>-576.8538028273581</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.1034090909090909</v>
       </c>
       <c r="B62">
-        <v>-370.1828488126218</v>
+        <v>-576.3275176769008</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.1132575757575758</v>
       </c>
       <c r="B63">
-        <v>-369.2651004391325</v>
+        <v>-575.8038684074118</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.1231060606060607</v>
       </c>
       <c r="B64">
-        <v>-368.3473520656433</v>
+        <v>-575.2828447411416</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.1329545454545454</v>
       </c>
       <c r="B65">
-        <v>-367.4296036921542</v>
+        <v>-574.7595067447853</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>0.1428030303030303</v>
       </c>
       <c r="B66">
-        <v>-366.5118553186649</v>
+        <v>-574.2121547510696</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>0.1526515151515152</v>
       </c>
       <c r="B67">
-        <v>-365.5941069451757</v>
+        <v>-573.7133215959149</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.1625</v>
       </c>
       <c r="B68">
-        <v>-364.6763585716865</v>
+        <v>-573.2841640981367</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.1723484848484849</v>
       </c>
       <c r="B69">
-        <v>-363.7586101981972</v>
+        <v>-572.8572120605395</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.1821969696969697</v>
       </c>
       <c r="B70">
-        <v>-362.8408618247081</v>
+        <v>-572.4324658379917</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.1920454545454545</v>
       </c>
       <c r="B71">
-        <v>-361.9231134512188</v>
+        <v>-572.002213492091</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.2018939393939394</v>
       </c>
       <c r="B72">
-        <v>-361.0053650777296</v>
+        <v>-571.5497893133704</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.2117424242424243</v>
       </c>
       <c r="B73">
-        <v>-360.0876167042404</v>
+        <v>-571.1013917201545</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>0.2215909090909092</v>
       </c>
       <c r="B74">
-        <v>-359.1698683307512</v>
+        <v>-570.7601695919652</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>0.2314393939393939</v>
       </c>
       <c r="B75">
-        <v>-358.2521199572621</v>
+        <v>-570.4250011865897</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>0.2412878787878788</v>
       </c>
       <c r="B76">
-        <v>-357.3343715837728</v>
+        <v>-570.0916925689119</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>0.2511363636363637</v>
       </c>
       <c r="B77">
-        <v>-356.4166232102837</v>
+        <v>-569.7413470684853</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>0.2609848484848485</v>
       </c>
       <c r="B78">
-        <v>-355.4988748367944</v>
+        <v>-569.379116648471</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>0.2708333333333334</v>
       </c>
       <c r="B79">
-        <v>-354.5811264633052</v>
+        <v>-569.0186589610809</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>0.2806818181818183</v>
       </c>
       <c r="B80">
-        <v>-353.663378089816</v>
+        <v>-568.7397380232687</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>0.290530303030303</v>
       </c>
       <c r="B81">
-        <v>-352.7456297163268</v>
+        <v>-568.4918442993169</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>0.3003787878787879</v>
       </c>
       <c r="B82">
-        <v>-351.8278813428375</v>
+        <v>-568.2398122594901</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>0.3102272727272728</v>
       </c>
       <c r="B83">
-        <v>-350.9101329693484</v>
+        <v>-567.9619882032853</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>0.3200757575757576</v>
       </c>
       <c r="B84">
-        <v>-349.9923845958592</v>
+        <v>-567.6856168671816</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>0.3299242424242425</v>
       </c>
       <c r="B85">
-        <v>-349.0746362223699</v>
+        <v>-567.4106814263243</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>0.3397727272727273</v>
       </c>
       <c r="B86">
-        <v>-348.1568878488807</v>
+        <v>-567.2098481655939</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>0.3496212121212121</v>
       </c>
       <c r="B87">
-        <v>-347.2391394753916</v>
+        <v>-567.0436944502284</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>0.359469696969697</v>
       </c>
       <c r="B88">
-        <v>-346.3213911019023</v>
+        <v>-566.8476931107512</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>0.3693181818181819</v>
       </c>
       <c r="B89">
-        <v>-345.4036427284131</v>
+        <v>-566.6520162455687</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>0.3791666666666667</v>
       </c>
       <c r="B90">
-        <v>-344.485894354924</v>
+        <v>-566.457503402511</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>0.3890151515151515</v>
       </c>
       <c r="B91">
-        <v>-343.5681459814347</v>
+        <v>-566.2641190024978</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>0.3988636363636364</v>
       </c>
       <c r="B92">
-        <v>-342.6503976079456</v>
+        <v>-566.1563771438833</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>0.4087121212121213</v>
       </c>
       <c r="B93">
-        <v>-341.7326492344563</v>
+        <v>-566.037170719526</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>0.4185606060606061</v>
       </c>
       <c r="B94">
-        <v>-340.814900860967</v>
+        <v>-565.918960585838</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>0.428409090909091</v>
       </c>
       <c r="B95">
-        <v>-339.8971524874779</v>
+        <v>-565.8017021800933</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>0.4382575757575758</v>
       </c>
       <c r="B96">
-        <v>-338.9794041139887</v>
+        <v>-565.6853429604631</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>0.4481060606060606</v>
       </c>
       <c r="B97">
-        <v>-338.0616557404995</v>
+        <v>-565.5771250524629</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>0.4579545454545455</v>
       </c>
       <c r="B98">
-        <v>-337.1439073670103</v>
+        <v>-565.5324758530774</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>0.4678030303030304</v>
       </c>
       <c r="B99">
-        <v>-336.2261589935211</v>
+        <v>-565.4886781323648</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>0.4776515151515152</v>
       </c>
       <c r="B100">
-        <v>-335.3084106200319</v>
+        <v>-565.4456727777422</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>0.4875</v>
       </c>
       <c r="B101">
-        <v>-334.3906622465426</v>
+        <v>-565.4022720964344</v>
       </c>
     </row>
   </sheetData>
